--- a/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
+++ b/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long.trinh-tien\Documents\Git\training_ut_it_Long\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051FC90B-353E-4F84-B0EA-CCE40FC53B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23500B5-54D3-42B8-85B4-F41A098E4D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{98A04C18-7F5B-4AE7-A401-12E90007D75B}"/>
   </bookViews>
@@ -11486,8 +11486,8 @@
   </sheetPr>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>

--- a/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
+++ b/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long.trinh-tien\Documents\Git\training_ut_it_Long\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23500B5-54D3-42B8-85B4-F41A098E4D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1074231-6FA2-4979-9D1E-AA685CE02455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{98A04C18-7F5B-4AE7-A401-12E90007D75B}"/>
   </bookViews>
@@ -676,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="289">
   <si>
     <t>&lt;=Summary</t>
   </si>
@@ -1625,6 +1625,15 @@
   </si>
   <si>
     <t>mutex handle is 0</t>
+  </si>
+  <si>
+    <t>ready_handle</t>
+  </si>
+  <si>
+    <t>0xFFFFFFFFU</t>
+  </si>
+  <si>
+    <t>unknown core state</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -2461,6 +2470,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11484,10 +11496,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
@@ -12109,7 +12121,7 @@
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="B15" s="7"/>
-      <c r="C15" s="99">
+      <c r="C15" s="100">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
@@ -12121,7 +12133,7 @@
         <v>126</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="G15" s="60" t="s">
         <v>128</v>
@@ -12130,7 +12142,7 @@
         <v>129</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="J15" s="68" t="s">
         <v>150</v>
@@ -12163,7 +12175,7 @@
         <v>150</v>
       </c>
       <c r="T15" s="68">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U15" s="68" t="s">
         <v>132</v>
@@ -12175,19 +12187,981 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15" customHeight="1">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
+    <row r="16" spans="1:23" ht="14.5">
+      <c r="B16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="100">
+        <f t="shared" ref="C16:C29" si="1">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C16, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0002</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="68">
+        <v>0</v>
+      </c>
+      <c r="M16" s="68">
+        <v>4</v>
+      </c>
+      <c r="N16" s="68">
+        <v>1</v>
+      </c>
+      <c r="O16" s="68">
+        <v>1</v>
+      </c>
+      <c r="P16" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>0</v>
+      </c>
+      <c r="R16" s="68">
+        <v>0</v>
+      </c>
+      <c r="S16" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T16" s="68">
+        <v>0</v>
+      </c>
+      <c r="U16" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V16" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W16" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="17" customHeight="1">
+      <c r="B17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="100">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C17, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0003</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="68">
+        <v>0</v>
+      </c>
+      <c r="M17" s="68">
+        <v>4</v>
+      </c>
+      <c r="N17" s="68">
+        <v>1</v>
+      </c>
+      <c r="O17" s="68">
+        <v>1</v>
+      </c>
+      <c r="P17" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>0</v>
+      </c>
+      <c r="R17" s="68">
+        <v>0</v>
+      </c>
+      <c r="S17" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T17" s="68">
+        <v>0</v>
+      </c>
+      <c r="U17" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V17" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W17" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="29">
+      <c r="B18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="100">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C18, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0004</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J18" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="68">
+        <v>0</v>
+      </c>
+      <c r="M18" s="68">
+        <v>3</v>
+      </c>
+      <c r="N18" s="68">
+        <v>1</v>
+      </c>
+      <c r="O18" s="68">
+        <v>1</v>
+      </c>
+      <c r="P18" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="68">
+        <v>0</v>
+      </c>
+      <c r="R18" s="68">
+        <v>0</v>
+      </c>
+      <c r="S18" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T18" s="68">
+        <v>0</v>
+      </c>
+      <c r="U18" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V18" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W18" s="68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="29">
+      <c r="B19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="100">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C19, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0005</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="68">
+        <v>0</v>
+      </c>
+      <c r="M19" s="68">
+        <v>2</v>
+      </c>
+      <c r="N19" s="68">
+        <v>1</v>
+      </c>
+      <c r="O19" s="68">
+        <v>1</v>
+      </c>
+      <c r="P19" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="68">
+        <v>0</v>
+      </c>
+      <c r="R19" s="68">
+        <v>0</v>
+      </c>
+      <c r="S19" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T19" s="68">
+        <v>0</v>
+      </c>
+      <c r="U19" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V19" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W19" s="68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="29">
+      <c r="B20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="100">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D20" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C20, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0006</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="I20" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J20" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="68">
+        <v>0</v>
+      </c>
+      <c r="M20" s="68">
+        <v>1</v>
+      </c>
+      <c r="N20" s="68">
+        <v>1</v>
+      </c>
+      <c r="O20" s="68">
+        <v>1</v>
+      </c>
+      <c r="P20" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="68">
+        <v>0</v>
+      </c>
+      <c r="R20" s="68">
+        <v>0</v>
+      </c>
+      <c r="S20" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T20" s="68">
+        <v>0</v>
+      </c>
+      <c r="U20" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V20" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W20" s="68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="14.5">
+      <c r="B21" s="7"/>
+      <c r="C21" s="100">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D21" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C21, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0007</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J21" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="L21" s="68">
+        <v>0</v>
+      </c>
+      <c r="M21" s="68">
+        <v>4</v>
+      </c>
+      <c r="N21" s="68">
+        <v>1</v>
+      </c>
+      <c r="O21" s="68">
+        <v>1</v>
+      </c>
+      <c r="P21" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="68">
+        <v>0</v>
+      </c>
+      <c r="R21" s="68">
+        <v>0</v>
+      </c>
+      <c r="S21" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T21" s="68">
+        <v>0</v>
+      </c>
+      <c r="U21" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V21" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W21" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="14.5">
+      <c r="B22" s="7"/>
+      <c r="C22" s="100">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D22" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C22, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0008</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="68">
+        <v>0</v>
+      </c>
+      <c r="M22" s="68">
+        <v>4</v>
+      </c>
+      <c r="N22" s="68">
+        <v>1</v>
+      </c>
+      <c r="O22" s="68">
+        <v>1</v>
+      </c>
+      <c r="P22" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="68">
+        <v>0</v>
+      </c>
+      <c r="R22" s="68">
+        <v>0</v>
+      </c>
+      <c r="S22" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T22" s="68">
+        <v>0</v>
+      </c>
+      <c r="U22" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V22" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W22" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="14.5">
+      <c r="B23" s="7"/>
+      <c r="C23" s="100">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C23, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0009</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="I23" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" s="68">
+        <v>0</v>
+      </c>
+      <c r="M23" s="68">
+        <v>4</v>
+      </c>
+      <c r="N23" s="68">
+        <v>1</v>
+      </c>
+      <c r="O23" s="68">
+        <v>1</v>
+      </c>
+      <c r="P23" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="68">
+        <v>0</v>
+      </c>
+      <c r="R23" s="68">
+        <v>0</v>
+      </c>
+      <c r="S23" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T23" s="68">
+        <v>0</v>
+      </c>
+      <c r="U23" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V23" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W23" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="14.5">
+      <c r="B24" s="7"/>
+      <c r="C24" s="100">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D24" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C24, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0010</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="L24" s="68">
+        <v>0</v>
+      </c>
+      <c r="M24" s="68">
+        <v>4</v>
+      </c>
+      <c r="N24" s="68">
+        <v>1</v>
+      </c>
+      <c r="O24" s="68">
+        <v>1</v>
+      </c>
+      <c r="P24" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="68">
+        <v>0</v>
+      </c>
+      <c r="R24" s="68">
+        <v>0</v>
+      </c>
+      <c r="S24" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T24" s="68">
+        <v>0</v>
+      </c>
+      <c r="U24" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V24" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W24" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="22">
+      <c r="B25" s="7"/>
+      <c r="C25" s="100">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D25" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C25, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0011</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" s="68">
+        <v>0</v>
+      </c>
+      <c r="M25" s="68">
+        <v>4</v>
+      </c>
+      <c r="N25" s="68">
+        <v>1</v>
+      </c>
+      <c r="O25" s="68">
+        <v>1</v>
+      </c>
+      <c r="P25" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="68">
+        <v>0</v>
+      </c>
+      <c r="R25" s="68">
+        <v>0</v>
+      </c>
+      <c r="S25" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T25" s="68">
+        <v>0</v>
+      </c>
+      <c r="U25" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V25" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W25" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="14.5">
+      <c r="B26" s="7"/>
+      <c r="C26" s="100">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D26" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C26, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0012</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I26" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J26" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="68">
+        <v>8</v>
+      </c>
+      <c r="M26" s="68">
+        <v>4</v>
+      </c>
+      <c r="N26" s="68">
+        <v>1</v>
+      </c>
+      <c r="O26" s="68">
+        <v>1</v>
+      </c>
+      <c r="P26" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="68">
+        <v>0</v>
+      </c>
+      <c r="R26" s="68">
+        <v>0</v>
+      </c>
+      <c r="S26" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T26" s="68">
+        <v>0</v>
+      </c>
+      <c r="U26" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V26" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W26" s="68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="22">
+      <c r="B27" s="7"/>
+      <c r="C27" s="100">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D27" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C27, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0013</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J27" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="68">
+        <v>0</v>
+      </c>
+      <c r="M27" s="68">
+        <v>4</v>
+      </c>
+      <c r="N27" s="68">
+        <v>1</v>
+      </c>
+      <c r="O27" s="68">
+        <v>1</v>
+      </c>
+      <c r="P27" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="68">
+        <v>0</v>
+      </c>
+      <c r="R27" s="68">
+        <v>0</v>
+      </c>
+      <c r="S27" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T27" s="68">
+        <v>0</v>
+      </c>
+      <c r="U27" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="V27" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W27" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="14.5">
+      <c r="B28" s="7"/>
+      <c r="C28" s="100">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D28" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C28, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0014</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="68">
+        <v>3</v>
+      </c>
+      <c r="M28" s="68">
+        <v>4</v>
+      </c>
+      <c r="N28" s="68">
+        <v>1</v>
+      </c>
+      <c r="O28" s="68">
+        <v>1</v>
+      </c>
+      <c r="P28" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="68">
+        <v>0</v>
+      </c>
+      <c r="R28" s="68">
+        <v>0</v>
+      </c>
+      <c r="S28" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T28" s="68">
+        <v>0</v>
+      </c>
+      <c r="U28" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V28" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W28" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="14.5">
+      <c r="B29" s="7"/>
+      <c r="C29" s="100">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D29" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C29, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0015</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="68">
+        <v>0</v>
+      </c>
+      <c r="M29" s="68">
+        <v>4</v>
+      </c>
+      <c r="N29" s="68">
+        <v>1</v>
+      </c>
+      <c r="O29" s="68">
+        <v>1</v>
+      </c>
+      <c r="P29" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="68">
+        <v>0</v>
+      </c>
+      <c r="R29" s="68">
+        <v>0</v>
+      </c>
+      <c r="S29" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T29" s="68">
+        <v>0</v>
+      </c>
+      <c r="U29" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V29" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W29" s="68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="15" customHeight="1">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="2:23" ht="13.5" customHeight="1">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="2:23" ht="15" customHeight="1">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14152,7 +15126,7 @@
   <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="C71" sqref="A71:XFD87"/>
+      <selection activeCell="C74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -16550,31 +17524,29 @@
     <row r="69" spans="2:23" ht="11"/>
     <row r="70" spans="2:23" ht="11"/>
     <row r="71" spans="2:23">
-      <c r="B71" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A2)</f>
-        <v>2</v>
+      <c r="B71" s="7"/>
+      <c r="C71" s="99">
+        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A15)</f>
+        <v>15</v>
       </c>
       <c r="D71" s="58" t="str">
         <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C71, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0002</v>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0015</v>
       </c>
       <c r="E71" s="59" t="s">
         <v>126</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G71" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="69" t="s">
-        <v>255</v>
+        <v>247</v>
+      </c>
+      <c r="G71" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="I71" s="68" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="J71" s="68" t="s">
         <v>150</v>
@@ -16589,7 +17561,7 @@
         <v>4</v>
       </c>
       <c r="N71" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="68">
         <v>1</v>
@@ -16603,8 +17575,12 @@
       <c r="R71" s="68">
         <v>0</v>
       </c>
-      <c r="S71" s="68"/>
-      <c r="T71" s="68"/>
+      <c r="S71" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T71" s="68">
+        <v>0</v>
+      </c>
       <c r="U71" s="68" t="s">
         <v>132</v>
       </c>
@@ -16615,35 +17591,33 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="2:23" ht="17" customHeight="1">
-      <c r="B72" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A3)</f>
-        <v>3</v>
+    <row r="72" spans="2:23">
+      <c r="B72" s="7"/>
+      <c r="C72" s="99">
+        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A16)</f>
+        <v>16</v>
       </c>
       <c r="D72" s="58" t="str">
         <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C72, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0003</v>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0016</v>
       </c>
       <c r="E72" s="59" t="s">
         <v>126</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="G72" s="60" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H72" s="67" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="I72" s="68" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="J72" s="68" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K72" s="68" t="s">
         <v>151</v>
@@ -16658,7 +17632,7 @@
         <v>1</v>
       </c>
       <c r="O72" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" s="68">
         <v>1</v>
@@ -16669,8 +17643,12 @@
       <c r="R72" s="68">
         <v>0</v>
       </c>
-      <c r="S72" s="68"/>
-      <c r="T72" s="68"/>
+      <c r="S72" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T72" s="68">
+        <v>0</v>
+      </c>
       <c r="U72" s="68" t="s">
         <v>132</v>
       </c>
@@ -16678,35 +17656,33 @@
         <v>132</v>
       </c>
       <c r="W72" s="68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" ht="29">
-      <c r="B73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A4)</f>
-        <v>4</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23">
+      <c r="B73" s="7"/>
+      <c r="C73" s="99">
+        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A17)</f>
+        <v>17</v>
       </c>
       <c r="D73" s="58" t="str">
         <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C73, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0004</v>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0017</v>
       </c>
       <c r="E73" s="59" t="s">
         <v>126</v>
       </c>
       <c r="F73" s="60" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="G73" s="60" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="H73" s="67" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="I73" s="68" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="J73" s="68" t="s">
         <v>150</v>
@@ -16718,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N73" s="68">
         <v>1</v>
@@ -16727,7 +17703,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q73" s="68">
         <v>0</v>
@@ -16735,8 +17711,12 @@
       <c r="R73" s="68">
         <v>0</v>
       </c>
-      <c r="S73" s="68"/>
-      <c r="T73" s="68"/>
+      <c r="S73" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T73" s="68">
+        <v>0</v>
+      </c>
       <c r="U73" s="68" t="s">
         <v>132</v>
       </c>
@@ -16751,28 +17731,28 @@
       <c r="B74" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A5)</f>
-        <v>5</v>
+      <c r="C74" s="99">
+        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A7)</f>
+        <v>7</v>
       </c>
       <c r="D74" s="58" t="str">
         <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C74, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0005</v>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0007</v>
       </c>
       <c r="E74" s="59" t="s">
         <v>126</v>
       </c>
       <c r="F74" s="60" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="G74" s="60" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="H74" s="67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I74" s="68" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="J74" s="68" t="s">
         <v>150</v>
@@ -16783,8 +17763,8 @@
       <c r="L74" s="68">
         <v>0</v>
       </c>
-      <c r="M74" s="68">
-        <v>2</v>
+      <c r="M74" s="68" t="s">
+        <v>287</v>
       </c>
       <c r="N74" s="68">
         <v>1</v>
@@ -16801,8 +17781,12 @@
       <c r="R74" s="68">
         <v>0</v>
       </c>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68"/>
+      <c r="S74" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T74" s="68">
+        <v>0</v>
+      </c>
       <c r="U74" s="68" t="s">
         <v>132</v>
       </c>
@@ -16810,846 +17794,23 @@
         <v>132</v>
       </c>
       <c r="W74" s="68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="2:23" ht="29">
-      <c r="B75" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A6)</f>
-        <v>6</v>
-      </c>
-      <c r="D75" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C75, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0006</v>
-      </c>
-      <c r="E75" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F75" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G75" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H75" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="I75" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J75" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K75" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="L75" s="68">
-        <v>0</v>
-      </c>
-      <c r="M75" s="68">
-        <v>1</v>
-      </c>
-      <c r="N75" s="68">
-        <v>1</v>
-      </c>
-      <c r="O75" s="68">
-        <v>1</v>
-      </c>
-      <c r="P75" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="68">
-        <v>0</v>
-      </c>
-      <c r="R75" s="68">
-        <v>0</v>
-      </c>
-      <c r="S75" s="68"/>
-      <c r="T75" s="68"/>
-      <c r="U75" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V75" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W75" s="68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23" ht="29">
-      <c r="B76" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="99">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A7)</f>
-        <v>7</v>
-      </c>
-      <c r="D76" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C76, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0007</v>
-      </c>
-      <c r="E76" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F76" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G76" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="H76" s="67" t="s">
-        <v>258</v>
-      </c>
-      <c r="I76" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J76" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K76" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="L76" s="68">
-        <v>0</v>
-      </c>
-      <c r="M76" s="68">
-        <v>4294967295</v>
-      </c>
-      <c r="N76" s="68">
-        <v>1</v>
-      </c>
-      <c r="O76" s="68">
-        <v>1</v>
-      </c>
-      <c r="P76" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="68">
-        <v>0</v>
-      </c>
-      <c r="R76" s="68">
-        <v>0</v>
-      </c>
-      <c r="S76" s="68"/>
-      <c r="T76" s="68"/>
-      <c r="U76" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V76" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W76" s="68" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="2:23">
-      <c r="B77" s="7"/>
-      <c r="C77" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A8)</f>
-        <v>8</v>
-      </c>
-      <c r="D77" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C77, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0008</v>
-      </c>
-      <c r="E77" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F77" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H77" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="I77" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J77" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K77" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="L77" s="68">
-        <v>0</v>
-      </c>
-      <c r="M77" s="68">
-        <v>4</v>
-      </c>
-      <c r="N77" s="68">
-        <v>1</v>
-      </c>
-      <c r="O77" s="68">
-        <v>1</v>
-      </c>
-      <c r="P77" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="68">
-        <v>0</v>
-      </c>
-      <c r="R77" s="68">
-        <v>0</v>
-      </c>
-      <c r="S77" s="68"/>
-      <c r="T77" s="68"/>
-      <c r="U77" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V77" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W77" s="68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23">
-      <c r="B78" s="7"/>
-      <c r="C78" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A9)</f>
-        <v>9</v>
-      </c>
-      <c r="D78" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C78, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0009</v>
-      </c>
-      <c r="E78" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F78" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G78" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="I78" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J78" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K78" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="L78" s="68">
-        <v>0</v>
-      </c>
-      <c r="M78" s="68">
-        <v>4</v>
-      </c>
-      <c r="N78" s="68">
-        <v>1</v>
-      </c>
-      <c r="O78" s="68">
-        <v>1</v>
-      </c>
-      <c r="P78" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="68">
-        <v>0</v>
-      </c>
-      <c r="R78" s="68">
-        <v>0</v>
-      </c>
-      <c r="S78" s="68"/>
-      <c r="T78" s="68"/>
-      <c r="U78" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V78" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W78" s="68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23">
-      <c r="B79" s="7"/>
-      <c r="C79" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A10)</f>
-        <v>10</v>
-      </c>
-      <c r="D79" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C79, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0010</v>
-      </c>
-      <c r="E79" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F79" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G79" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H79" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="I79" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J79" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K79" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="L79" s="68">
-        <v>0</v>
-      </c>
-      <c r="M79" s="68">
-        <v>4</v>
-      </c>
-      <c r="N79" s="68">
-        <v>1</v>
-      </c>
-      <c r="O79" s="68">
-        <v>1</v>
-      </c>
-      <c r="P79" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="68">
-        <v>0</v>
-      </c>
-      <c r="R79" s="68">
-        <v>0</v>
-      </c>
-      <c r="S79" s="68"/>
-      <c r="T79" s="68"/>
-      <c r="U79" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V79" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W79" s="68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="2:23">
-      <c r="B80" s="7"/>
-      <c r="C80" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A11)</f>
-        <v>11</v>
-      </c>
-      <c r="D80" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C80, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0011</v>
-      </c>
-      <c r="E80" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F80" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G80" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H80" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="I80" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J80" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K80" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="L80" s="68">
-        <v>0</v>
-      </c>
-      <c r="M80" s="68">
-        <v>4</v>
-      </c>
-      <c r="N80" s="68">
-        <v>1</v>
-      </c>
-      <c r="O80" s="68">
-        <v>1</v>
-      </c>
-      <c r="P80" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="68">
-        <v>0</v>
-      </c>
-      <c r="R80" s="68">
-        <v>0</v>
-      </c>
-      <c r="S80" s="68"/>
-      <c r="T80" s="68"/>
-      <c r="U80" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V80" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W80" s="68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="2:23" ht="22">
-      <c r="B81" s="7"/>
-      <c r="C81" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A12)</f>
-        <v>12</v>
-      </c>
-      <c r="D81" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C81, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0012</v>
-      </c>
-      <c r="E81" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G81" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H81" s="69" t="s">
-        <v>283</v>
-      </c>
-      <c r="I81" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J81" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K81" s="68" t="s">
-        <v>282</v>
-      </c>
-      <c r="L81" s="68">
-        <v>0</v>
-      </c>
-      <c r="M81" s="68">
-        <v>4</v>
-      </c>
-      <c r="N81" s="68">
-        <v>1</v>
-      </c>
-      <c r="O81" s="68">
-        <v>1</v>
-      </c>
-      <c r="P81" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="68">
-        <v>0</v>
-      </c>
-      <c r="R81" s="68">
-        <v>0</v>
-      </c>
-      <c r="S81" s="68"/>
-      <c r="T81" s="68"/>
-      <c r="U81" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V81" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W81" s="68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="2:23">
-      <c r="B82" s="7"/>
-      <c r="C82" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A13)</f>
-        <v>13</v>
-      </c>
-      <c r="D82" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C82, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0013</v>
-      </c>
-      <c r="E82" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F82" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G82" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H82" s="67" t="s">
-        <v>278</v>
-      </c>
-      <c r="I82" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J82" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K82" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="L82" s="68">
-        <v>8</v>
-      </c>
-      <c r="M82" s="68">
-        <v>4</v>
-      </c>
-      <c r="N82" s="68">
-        <v>1</v>
-      </c>
-      <c r="O82" s="68">
-        <v>1</v>
-      </c>
-      <c r="P82" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="68">
-        <v>0</v>
-      </c>
-      <c r="R82" s="68">
-        <v>0</v>
-      </c>
-      <c r="S82" s="68"/>
-      <c r="T82" s="68"/>
-      <c r="U82" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V82" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W82" s="68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="2:23" ht="22">
-      <c r="B83" s="7"/>
-      <c r="C83" s="57">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A14)</f>
-        <v>14</v>
-      </c>
-      <c r="D83" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C83, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0014</v>
-      </c>
-      <c r="E83" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G83" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H83" s="69" t="s">
-        <v>268</v>
-      </c>
-      <c r="I83" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J83" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K83" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="L83" s="68">
-        <v>0</v>
-      </c>
-      <c r="M83" s="68">
-        <v>4</v>
-      </c>
-      <c r="N83" s="68">
-        <v>1</v>
-      </c>
-      <c r="O83" s="68">
-        <v>1</v>
-      </c>
-      <c r="P83" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="68">
-        <v>0</v>
-      </c>
-      <c r="R83" s="68">
-        <v>0</v>
-      </c>
-      <c r="S83" s="68"/>
-      <c r="T83" s="68"/>
-      <c r="U83" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="V83" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W83" s="68" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="2:23">
-      <c r="B84" s="7"/>
-      <c r="C84" s="99">
-        <f>ROW(R_IMPDRV_AttrSetClBrkAddr!A15)</f>
-        <v>15</v>
-      </c>
-      <c r="D84" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C84, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0015</v>
-      </c>
-      <c r="E84" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F84" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G84" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I84" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J84" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K84" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="L84" s="68">
-        <v>0</v>
-      </c>
-      <c r="M84" s="68">
-        <v>4</v>
-      </c>
-      <c r="N84" s="68">
-        <v>0</v>
-      </c>
-      <c r="O84" s="68">
-        <v>1</v>
-      </c>
-      <c r="P84" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="68">
-        <v>0</v>
-      </c>
-      <c r="R84" s="68">
-        <v>0</v>
-      </c>
-      <c r="S84" s="68"/>
-      <c r="T84" s="68"/>
-      <c r="U84" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V84" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W84" s="68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="2:23">
-      <c r="B85" s="7"/>
-      <c r="C85" s="99">
-        <f>ROW(A71)</f>
-        <v>71</v>
-      </c>
-      <c r="D85" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C85, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0071</v>
-      </c>
-      <c r="E85" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F85" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G85" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H85" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="I85" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J85" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K85" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="L85" s="68">
-        <v>0</v>
-      </c>
-      <c r="M85" s="68">
-        <v>4</v>
-      </c>
-      <c r="N85" s="68">
-        <v>1</v>
-      </c>
-      <c r="O85" s="68">
-        <v>0</v>
-      </c>
-      <c r="P85" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="68">
-        <v>0</v>
-      </c>
-      <c r="R85" s="68">
-        <v>0</v>
-      </c>
-      <c r="S85" s="68"/>
-      <c r="T85" s="68"/>
-      <c r="U85" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V85" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W85" s="68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="2:23">
-      <c r="B86" s="7"/>
-      <c r="C86" s="99">
-        <f>ROW(A72)</f>
-        <v>72</v>
-      </c>
-      <c r="D86" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C86, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0072</v>
-      </c>
-      <c r="E86" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F86" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G86" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="H86" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="I86" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J86" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K86" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="L86" s="68">
-        <v>0</v>
-      </c>
-      <c r="M86" s="68">
-        <v>4</v>
-      </c>
-      <c r="N86" s="68">
-        <v>1</v>
-      </c>
-      <c r="O86" s="68">
-        <v>1</v>
-      </c>
-      <c r="P86" s="68">
-        <v>-1</v>
-      </c>
-      <c r="Q86" s="68">
-        <v>0</v>
-      </c>
-      <c r="R86" s="68">
-        <v>0</v>
-      </c>
-      <c r="S86" s="68"/>
-      <c r="T86" s="68"/>
-      <c r="U86" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V86" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W86" s="68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="2:23">
-      <c r="B87" s="7"/>
-      <c r="C87" s="99">
-        <f>ROW(A73)</f>
-        <v>73</v>
-      </c>
-      <c r="D87" s="58" t="str">
-        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C87, "0000"))</f>
-        <v>R_IMPDRV_AttrSetClBrkAddr_0073</v>
-      </c>
-      <c r="E87" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F87" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="G87" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="H87" s="67" t="s">
-        <v>279</v>
-      </c>
-      <c r="I87" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="J87" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K87" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="L87" s="68">
-        <v>3</v>
-      </c>
-      <c r="M87" s="68">
-        <v>4</v>
-      </c>
-      <c r="N87" s="68">
-        <v>1</v>
-      </c>
-      <c r="O87" s="68">
-        <v>1</v>
-      </c>
-      <c r="P87" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="68">
-        <v>0</v>
-      </c>
-      <c r="R87" s="68">
-        <v>0</v>
-      </c>
-      <c r="S87" s="68"/>
-      <c r="T87" s="68"/>
-      <c r="U87" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="V87" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="W87" s="68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="2:23" ht="11"/>
+    <row r="75" spans="2:23" ht="11"/>
+    <row r="76" spans="2:23" ht="11"/>
+    <row r="77" spans="2:23" ht="11"/>
+    <row r="78" spans="2:23" ht="11"/>
+    <row r="79" spans="2:23" ht="11"/>
+    <row r="80" spans="2:23" ht="11"/>
+    <row r="81" ht="11"/>
+    <row r="82" ht="11"/>
+    <row r="83" ht="11"/>
+    <row r="84" ht="11"/>
+    <row r="85" ht="11"/>
+    <row r="86" ht="11"/>
+    <row r="87" ht="11"/>
+    <row r="88" ht="11"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="I11:X11"/>

--- a/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
+++ b/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long.trinh-tien\Documents\Git\training_ut_it_Long\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1074231-6FA2-4979-9D1E-AA685CE02455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8757ED0B-D684-4D1F-9A62-F6215C44FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{98A04C18-7F5B-4AE7-A401-12E90007D75B}"/>
   </bookViews>
@@ -676,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="290">
   <si>
     <t>&lt;=Summary</t>
   </si>
@@ -1634,6 +1634,9 @@
   </si>
   <si>
     <t>unknown core state</t>
+  </si>
+  <si>
+    <t>not stub</t>
   </si>
 </sst>
 </file>
@@ -11496,10 +11499,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="N10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
@@ -12178,10 +12181,10 @@
         <v>0</v>
       </c>
       <c r="U15" s="68" t="s">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="V15" s="68" t="s">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="W15" s="68" t="s">
         <v>131</v>
@@ -13149,19 +13152,16 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="15" customHeight="1">
+    <row r="30" spans="2:23" ht="13.5" customHeight="1">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="2:23" ht="13.5" customHeight="1">
+    <row r="31" spans="2:23" ht="15" customHeight="1">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:23" ht="15" customHeight="1">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="41" spans="6:8">
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
+    <row r="40" spans="6:8">
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15125,8 +15125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03D3585-9FCD-4938-B4DD-F07BF8EF78E3}">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="C74" sqref="A74:XFD74"/>
+    <sheetView topLeftCell="C45" workbookViewId="0">
+      <selection activeCell="C73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>

--- a/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
+++ b/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long.trinh-tien\Documents\Git\training_ut_it_Long\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8757ED0B-D684-4D1F-9A62-F6215C44FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1332A64-C3AD-4AF2-9001-883ACDD7AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{98A04C18-7F5B-4AE7-A401-12E90007D75B}"/>
   </bookViews>
@@ -676,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="306">
   <si>
     <t>&lt;=Summary</t>
   </si>
@@ -1637,6 +1637,60 @@
   </si>
   <si>
     <t>not stub</t>
+  </si>
+  <si>
+    <t>Invalid cl_brk_addr: can not be divisible by 4</t>
+  </si>
+  <si>
+    <t>R_OSAL_ThsyncMutexLockForTimePeriod return OSAL_RETURN_TIME -&gt; system error</t>
+  </si>
+  <si>
+    <t>R_OSAL_ThsyncMutexLockForTimePeriod return OSAL_RETURN_BUSY -&gt; system error</t>
+  </si>
+  <si>
+    <t>R_OSAL_ThsyncMutexLockForTimePeriod return OSAL_RETURN_HANDLE -&gt; system error</t>
+  </si>
+  <si>
+    <t>R_OSAL_ThsyncMutexLockForTimePeriod return OSAL_RETURN_STATE -&gt; system error</t>
+  </si>
+  <si>
+    <t>OSAL_RETURN_OK
+OSAL_RETURN_PAR
+OSAL_RETURN_TIME
+OSAL_RETURN_BUSY
+OSAL_RETURN_HANDLE
+OSAL_RETURN_STATE
+OSAL_RETURN_FAIL</t>
+  </si>
+  <si>
+    <t>core_type =IMPDRV_CORE_TYPE_IMP_DSP is supported but fail to fetch main func (NULL)</t>
+  </si>
+  <si>
+    <t>IMPDRV_CORE_TYPE_DSP</t>
+  </si>
+  <si>
+    <t>R_OSAL_ThsyncMutexUnlock return OSAL_RETURN_FAIL -&gt; system error</t>
+  </si>
+  <si>
+    <t>R_OSAL_ThsyncMutexUnlock return OSAL_RETURN_HANDLE -&gt; system error</t>
+  </si>
+  <si>
+    <t>R_OSAL_ThsyncMutexUnlock return OSAL_RETURN_STATE -&gt; system error</t>
+  </si>
+  <si>
+    <t>IMPDRV_CORE_TYPE_OCV</t>
+  </si>
+  <si>
+    <t>IMPDRV_CORE_TYPE_DMAC_SLIM</t>
+  </si>
+  <si>
+    <t>IMPDRV_CORE_TYPE_PSCEXE</t>
+  </si>
+  <si>
+    <t>IMPDRV_CORE_TYPE_CNN</t>
+  </si>
+  <si>
+    <t>Normal operation with different core type</t>
   </si>
 </sst>
 </file>
@@ -11499,10 +11553,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
@@ -11927,10 +11981,10 @@
         <v>68</v>
       </c>
       <c r="U9" s="38" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="V9" s="38" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="W9" s="38" t="s">
         <v>241</v>
@@ -12195,7 +12249,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="100">
-        <f t="shared" ref="C16:C29" si="1">ROW(A2)</f>
+        <f t="shared" ref="C16:C48" si="1">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="D16" s="58" t="str">
@@ -12352,7 +12406,7 @@
         <v>133</v>
       </c>
       <c r="H18" s="67" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="I18" s="68" t="s">
         <v>286</v>
@@ -12422,7 +12476,7 @@
         <v>133</v>
       </c>
       <c r="H19" s="67" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="I19" s="68" t="s">
         <v>286</v>
@@ -12492,7 +12546,7 @@
         <v>133</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="I20" s="68" t="s">
         <v>286</v>
@@ -12560,7 +12614,7 @@
         <v>133</v>
       </c>
       <c r="H21" s="67" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="I21" s="68" t="s">
         <v>286</v>
@@ -12569,7 +12623,7 @@
         <v>150</v>
       </c>
       <c r="K21" s="68" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="L21" s="68">
         <v>0</v>
@@ -12605,7 +12659,7 @@
         <v>132</v>
       </c>
       <c r="W21" s="68" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.5">
@@ -12628,7 +12682,7 @@
         <v>133</v>
       </c>
       <c r="H22" s="67" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="I22" s="68" t="s">
         <v>286</v>
@@ -12637,7 +12691,7 @@
         <v>150</v>
       </c>
       <c r="K22" s="68" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="L22" s="68">
         <v>0</v>
@@ -12673,7 +12727,7 @@
         <v>132</v>
       </c>
       <c r="W22" s="68" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.5">
@@ -12696,7 +12750,7 @@
         <v>133</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="I23" s="68" t="s">
         <v>286</v>
@@ -12705,7 +12759,7 @@
         <v>150</v>
       </c>
       <c r="K23" s="68" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="L23" s="68">
         <v>0</v>
@@ -12741,7 +12795,7 @@
         <v>132</v>
       </c>
       <c r="W23" s="68" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.5">
@@ -12761,10 +12815,10 @@
         <v>247</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H24" s="67" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="I24" s="68" t="s">
         <v>286</v>
@@ -12773,7 +12827,7 @@
         <v>150</v>
       </c>
       <c r="K24" s="68" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="L24" s="68">
         <v>0</v>
@@ -12809,10 +12863,10 @@
         <v>132</v>
       </c>
       <c r="W24" s="68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" ht="22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="14.5">
       <c r="B25" s="7"/>
       <c r="C25" s="100">
         <f t="shared" si="1"/>
@@ -12829,10 +12883,10 @@
         <v>247</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="69" t="s">
-        <v>283</v>
+        <v>133</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>305</v>
       </c>
       <c r="I25" s="68" t="s">
         <v>286</v>
@@ -12841,7 +12895,7 @@
         <v>150</v>
       </c>
       <c r="K25" s="68" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="L25" s="68">
         <v>0</v>
@@ -12877,7 +12931,7 @@
         <v>132</v>
       </c>
       <c r="W25" s="68" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.5">
@@ -12897,10 +12951,10 @@
         <v>247</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H26" s="67" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="I26" s="68" t="s">
         <v>286</v>
@@ -12909,10 +12963,10 @@
         <v>150</v>
       </c>
       <c r="K26" s="68" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="L26" s="68">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M26" s="68">
         <v>4</v>
@@ -12945,10 +12999,10 @@
         <v>132</v>
       </c>
       <c r="W26" s="68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" ht="22">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="14.5">
       <c r="B27" s="7"/>
       <c r="C27" s="100">
         <f t="shared" si="1"/>
@@ -12965,10 +13019,10 @@
         <v>247</v>
       </c>
       <c r="G27" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="69" t="s">
-        <v>268</v>
+        <v>133</v>
+      </c>
+      <c r="H27" s="67" t="s">
+        <v>263</v>
       </c>
       <c r="I27" s="68" t="s">
         <v>286</v>
@@ -12977,7 +13031,7 @@
         <v>150</v>
       </c>
       <c r="K27" s="68" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L27" s="68">
         <v>0</v>
@@ -13007,13 +13061,13 @@
         <v>0</v>
       </c>
       <c r="U27" s="68" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="V27" s="68" t="s">
         <v>132</v>
       </c>
       <c r="W27" s="68" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.5">
@@ -13033,10 +13087,10 @@
         <v>247</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="H28" s="67" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="I28" s="68" t="s">
         <v>286</v>
@@ -13045,10 +13099,10 @@
         <v>150</v>
       </c>
       <c r="K28" s="68" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="L28" s="68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="68">
         <v>4</v>
@@ -13101,19 +13155,19 @@
         <v>247</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="H29" s="67" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="J29" s="68" t="s">
         <v>150</v>
       </c>
       <c r="K29" s="68" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="L29" s="68">
         <v>0</v>
@@ -13149,19 +13203,971 @@
         <v>132</v>
       </c>
       <c r="W29" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="22">
+      <c r="B30" s="7"/>
+      <c r="C30" s="100">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D30" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C30, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0016</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="I30" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J30" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" s="68">
+        <v>0</v>
+      </c>
+      <c r="M30" s="68">
+        <v>4</v>
+      </c>
+      <c r="N30" s="68">
+        <v>1</v>
+      </c>
+      <c r="O30" s="68">
+        <v>1</v>
+      </c>
+      <c r="P30" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="68">
+        <v>0</v>
+      </c>
+      <c r="R30" s="68">
+        <v>0</v>
+      </c>
+      <c r="S30" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T30" s="68">
+        <v>0</v>
+      </c>
+      <c r="U30" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V30" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W30" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="22">
+      <c r="B31" s="7"/>
+      <c r="C31" s="100">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D31" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C31, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0017</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="I31" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31" s="68">
+        <v>0</v>
+      </c>
+      <c r="M31" s="68">
+        <v>4</v>
+      </c>
+      <c r="N31" s="68">
+        <v>1</v>
+      </c>
+      <c r="O31" s="68">
+        <v>1</v>
+      </c>
+      <c r="P31" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="68">
+        <v>0</v>
+      </c>
+      <c r="R31" s="68">
+        <v>0</v>
+      </c>
+      <c r="S31" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T31" s="68">
+        <v>0</v>
+      </c>
+      <c r="U31" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V31" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W31" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" ht="14.5">
+      <c r="B32" s="7"/>
+      <c r="C32" s="100">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D32" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C32, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0018</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="I32" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="68">
+        <v>8</v>
+      </c>
+      <c r="M32" s="68">
+        <v>4</v>
+      </c>
+      <c r="N32" s="68">
+        <v>1</v>
+      </c>
+      <c r="O32" s="68">
+        <v>1</v>
+      </c>
+      <c r="P32" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="68">
+        <v>0</v>
+      </c>
+      <c r="R32" s="68">
+        <v>0</v>
+      </c>
+      <c r="S32" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T32" s="68">
+        <v>0</v>
+      </c>
+      <c r="U32" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V32" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W32" s="68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" ht="22">
+      <c r="B33" s="7"/>
+      <c r="C33" s="100">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D33" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C33, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0019</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="I33" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L33" s="68">
+        <v>0</v>
+      </c>
+      <c r="M33" s="68">
+        <v>4</v>
+      </c>
+      <c r="N33" s="68">
+        <v>1</v>
+      </c>
+      <c r="O33" s="68">
+        <v>1</v>
+      </c>
+      <c r="P33" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="68">
+        <v>0</v>
+      </c>
+      <c r="R33" s="68">
+        <v>0</v>
+      </c>
+      <c r="S33" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T33" s="68">
+        <v>0</v>
+      </c>
+      <c r="U33" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="V33" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W33" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="22">
+      <c r="B34" s="7"/>
+      <c r="C34" s="100">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D34" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C34, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0020</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="I34" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="68">
+        <v>0</v>
+      </c>
+      <c r="M34" s="68">
+        <v>4</v>
+      </c>
+      <c r="N34" s="68">
+        <v>1</v>
+      </c>
+      <c r="O34" s="68">
+        <v>1</v>
+      </c>
+      <c r="P34" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="68">
+        <v>0</v>
+      </c>
+      <c r="R34" s="68">
+        <v>0</v>
+      </c>
+      <c r="S34" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T34" s="68">
+        <v>0</v>
+      </c>
+      <c r="U34" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="V34" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W34" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" ht="22">
+      <c r="B35" s="7"/>
+      <c r="C35" s="100">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D35" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C35, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0021</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="I35" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="68">
+        <v>0</v>
+      </c>
+      <c r="M35" s="68">
+        <v>4</v>
+      </c>
+      <c r="N35" s="68">
+        <v>1</v>
+      </c>
+      <c r="O35" s="68">
+        <v>1</v>
+      </c>
+      <c r="P35" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="68">
+        <v>0</v>
+      </c>
+      <c r="R35" s="68">
+        <v>0</v>
+      </c>
+      <c r="S35" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T35" s="68">
+        <v>0</v>
+      </c>
+      <c r="U35" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="V35" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W35" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" ht="22">
+      <c r="B36" s="7"/>
+      <c r="C36" s="100">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D36" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C36, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0022</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="I36" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" s="68">
+        <v>0</v>
+      </c>
+      <c r="M36" s="68">
+        <v>4</v>
+      </c>
+      <c r="N36" s="68">
+        <v>1</v>
+      </c>
+      <c r="O36" s="68">
+        <v>1</v>
+      </c>
+      <c r="P36" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="68">
+        <v>0</v>
+      </c>
+      <c r="R36" s="68">
+        <v>0</v>
+      </c>
+      <c r="S36" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T36" s="68">
+        <v>0</v>
+      </c>
+      <c r="U36" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="V36" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W36" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="22">
+      <c r="B37" s="7"/>
+      <c r="C37" s="100">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D37" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C37, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0023</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="69" t="s">
+        <v>293</v>
+      </c>
+      <c r="I37" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L37" s="68">
+        <v>0</v>
+      </c>
+      <c r="M37" s="68">
+        <v>4</v>
+      </c>
+      <c r="N37" s="68">
+        <v>1</v>
+      </c>
+      <c r="O37" s="68">
+        <v>1</v>
+      </c>
+      <c r="P37" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="68">
+        <v>0</v>
+      </c>
+      <c r="R37" s="68">
+        <v>0</v>
+      </c>
+      <c r="S37" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T37" s="68">
+        <v>0</v>
+      </c>
+      <c r="U37" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="V37" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W37" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" ht="22">
+      <c r="B38" s="7"/>
+      <c r="C38" s="100">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D38" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C38, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0024</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="I38" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L38" s="68">
+        <v>0</v>
+      </c>
+      <c r="M38" s="68">
+        <v>4</v>
+      </c>
+      <c r="N38" s="68">
+        <v>1</v>
+      </c>
+      <c r="O38" s="68">
+        <v>1</v>
+      </c>
+      <c r="P38" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="68">
+        <v>0</v>
+      </c>
+      <c r="R38" s="68">
+        <v>0</v>
+      </c>
+      <c r="S38" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T38" s="68">
+        <v>0</v>
+      </c>
+      <c r="U38" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="V38" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W38" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" ht="22">
+      <c r="B39" s="7"/>
+      <c r="C39" s="100">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D39" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C39, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0025</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="I39" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L39" s="68">
+        <v>0</v>
+      </c>
+      <c r="M39" s="68">
+        <v>4</v>
+      </c>
+      <c r="N39" s="68">
+        <v>1</v>
+      </c>
+      <c r="O39" s="68">
+        <v>1</v>
+      </c>
+      <c r="P39" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="68">
+        <v>0</v>
+      </c>
+      <c r="R39" s="68">
+        <v>0</v>
+      </c>
+      <c r="S39" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T39" s="68">
+        <v>0</v>
+      </c>
+      <c r="U39" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V39" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="W39" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="22">
+      <c r="B40" s="7"/>
+      <c r="C40" s="100">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D40" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C40, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0026</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="I40" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L40" s="68">
+        <v>0</v>
+      </c>
+      <c r="M40" s="68">
+        <v>4</v>
+      </c>
+      <c r="N40" s="68">
+        <v>1</v>
+      </c>
+      <c r="O40" s="68">
+        <v>1</v>
+      </c>
+      <c r="P40" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="68">
+        <v>0</v>
+      </c>
+      <c r="R40" s="68">
+        <v>0</v>
+      </c>
+      <c r="S40" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T40" s="68">
+        <v>0</v>
+      </c>
+      <c r="U40" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V40" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="W40" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" ht="22">
+      <c r="B41" s="7"/>
+      <c r="C41" s="100">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D41" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C41, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0027</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="I41" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L41" s="68">
+        <v>0</v>
+      </c>
+      <c r="M41" s="68">
+        <v>4</v>
+      </c>
+      <c r="N41" s="68">
+        <v>1</v>
+      </c>
+      <c r="O41" s="68">
+        <v>1</v>
+      </c>
+      <c r="P41" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="68">
+        <v>0</v>
+      </c>
+      <c r="R41" s="68">
+        <v>0</v>
+      </c>
+      <c r="S41" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T41" s="68">
+        <v>0</v>
+      </c>
+      <c r="U41" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V41" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="W41" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="14.5">
+      <c r="B42" s="7"/>
+      <c r="C42" s="100">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D42" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C42, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0028</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="I42" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L42" s="68">
+        <v>3</v>
+      </c>
+      <c r="M42" s="68">
+        <v>4</v>
+      </c>
+      <c r="N42" s="68">
+        <v>1</v>
+      </c>
+      <c r="O42" s="68">
+        <v>1</v>
+      </c>
+      <c r="P42" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="68">
+        <v>0</v>
+      </c>
+      <c r="R42" s="68">
+        <v>0</v>
+      </c>
+      <c r="S42" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T42" s="68">
+        <v>0</v>
+      </c>
+      <c r="U42" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V42" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W42" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="14.5">
+      <c r="B43" s="7"/>
+      <c r="C43" s="100">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D43" s="58" t="str">
+        <f ca="1">CONCATENATE(R_IMPDRV_AttrSetClBrkAddr!$C$2, "_", TEXT($C43, "0000"))</f>
+        <v>R_IMPDRV_AttrSetClBrkAddr_0029</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="H43" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I43" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="L43" s="68">
+        <v>0</v>
+      </c>
+      <c r="M43" s="68">
+        <v>4</v>
+      </c>
+      <c r="N43" s="68">
+        <v>1</v>
+      </c>
+      <c r="O43" s="68">
+        <v>1</v>
+      </c>
+      <c r="P43" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="68">
+        <v>0</v>
+      </c>
+      <c r="R43" s="68">
+        <v>0</v>
+      </c>
+      <c r="S43" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="T43" s="68">
+        <v>0</v>
+      </c>
+      <c r="U43" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="V43" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="W43" s="68" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="13.5" customHeight="1">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="2:23" ht="15" customHeight="1">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="40" spans="6:8">
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
+    <row r="44" spans="2:23" ht="13.5" customHeight="1">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="2:23" ht="15" customHeight="1">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
+++ b/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long.trinh-tien\Documents\Git\training_ut_it_Long\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1332A64-C3AD-4AF2-9001-883ACDD7AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5CE4B3-FFED-4C92-A3D8-6FE670639DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{98A04C18-7F5B-4AE7-A401-12E90007D75B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{98A04C18-7F5B-4AE7-A401-12E90007D75B}"/>
   </bookViews>
   <sheets>
     <sheet name="R_IMPDRV_GetPMPolicy" sheetId="2" r:id="rId1"/>
     <sheet name="R_IMPDRV_SetPMPolicy" sheetId="1" r:id="rId2"/>
     <sheet name="template" sheetId="3" r:id="rId3"/>
     <sheet name="R_IMPDRV_AttrSetClBrkAddr" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
-    <sheet name="clone" sheetId="5" r:id="rId6"/>
+    <sheet name="R_IMPDRV_SetIrqGroup" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="clone" sheetId="5" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AGraph1" hidden="1">#REF!</definedName>
@@ -676,7 +677,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="370">
   <si>
     <t>&lt;=Summary</t>
   </si>
@@ -1692,12 +1693,222 @@
   <si>
     <t>Normal operation with different core type</t>
   </si>
+  <si>
+    <t>R_IMPDRV_SetIrqGroup</t>
+  </si>
+  <si>
+    <t>st_impdrv_irq_group_t</t>
+  </si>
+  <si>
+    <t>e_impdrv_irq_group_t</t>
+  </si>
+  <si>
+    <t>*p_irq_param</t>
+  </si>
+  <si>
+    <t>irq_group</t>
+  </si>
+  <si>
+    <t>group_core_num</t>
+  </si>
+  <si>
+    <t>group_core_info[0]</t>
+  </si>
+  <si>
+    <t>group_core_info[1]</t>
+  </si>
+  <si>
+    <t>group_core_info[2]</t>
+  </si>
+  <si>
+    <t>group_core_info[3]</t>
+  </si>
+  <si>
+    <t>group_core_info[4]</t>
+  </si>
+  <si>
+    <t>group_core_info[5]</t>
+  </si>
+  <si>
+    <t>R_OSAL_IoRead32[6]</t>
+  </si>
+  <si>
+    <t>lRegData[6]</t>
+  </si>
+  <si>
+    <t>This function is sets the IRQ group setting for current instance.</t>
+  </si>
+  <si>
+    <t>Control handle for IMP Driver</t>
+  </si>
+  <si>
+    <t>Interrupt group to which this Control handle</t>
+  </si>
+  <si>
+    <t>IRQ group</t>
+  </si>
+  <si>
+    <t>Group core num</t>
+  </si>
+  <si>
+    <t>Group core info</t>
+  </si>
+  <si>
+    <t>Checksum value of Global variable</t>
+  </si>
+  <si>
+    <t>return lRegData</t>
+  </si>
+  <si>
+    <t>e_impdrv_errorcode_t R_IMPDRV_SetIrqGroup (
+	impdrv_ctrl_handle_t	handle,
+	const st_impdrv_irq_group_t	*const p_irq_param
+);</t>
+  </si>
+  <si>
+    <t>OSAL_RETURN_OK
+OSAL_RETURN_PAR
+OSAL_RETURN_DEV
+OSAL_RETURN_FAIL
+OSAL_RETURN_IO
+OSAL_RETURN_HANDLE
+OSAL_RETURN_STATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPDRV_EC_OK 
+IMPDRV_EC_NG_ARGNULL 
+IMPDRV_EC_NG_CHECKFAIL
+IMPDRV_EC_NG_SEQSTATE 
+IMPDRV_EC_NG_SYSTEMERROR 
+IMPDRV_EC_NG_PARAM 
+IMPDRV_EC_NG_NOTSUPPORT </t>
+  </si>
+  <si>
+    <t>IMPDRV_IRQGROUP_MAXID = 21</t>
+  </si>
+  <si>
+    <t>UT_PD_021_11_001</t>
+  </si>
+  <si>
+    <t>[Covers: UD_PD_UD02_01_0011]</t>
+  </si>
+  <si>
+    <t>checksum_handle</t>
+  </si>
+  <si>
+    <t>IMPDRV_IRQ_GROUP_0</t>
+  </si>
+  <si>
+    <t>{ OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK }</t>
+  </si>
+  <si>
+    <t>{0, 0, 268355, 268355, 0, 3221493827 }</t>
+  </si>
+  <si>
+    <t>{137283, 137283, 137283, 137283, 137283, 3221362755 }</t>
+  </si>
+  <si>
+    <t>{0, 0, 723, 723, 0, 3221226195 }</t>
+  </si>
+  <si>
+    <t>{0, 0, 571, 0, 0, 2048 }</t>
+  </si>
+  <si>
+    <t>*p_irq_param is NULL</t>
+  </si>
+  <si>
+    <t>invalid irq_group</t>
+  </si>
+  <si>
+    <t>invalid group_core_num = 0</t>
+  </si>
+  <si>
+    <t>invalid group_core_num = IMPDRV_IRQGROUP_MAXID + 1</t>
+  </si>
+  <si>
+    <t>IMPDRV_IRQ_GROUP_1</t>
+  </si>
+  <si>
+    <t>IMPDRV_IRQGROUP_MAXID + 1</t>
+  </si>
+  <si>
+    <t>Duplicate core in group_core</t>
+  </si>
+  <si>
+    <t>Invalid core info</t>
+  </si>
+  <si>
+    <t>impdrv_***ctl_check_state() returns fail</t>
+  </si>
+  <si>
+    <t>check if[rt] R_OSAL_IoRead32 = OSAL_RETURN_FAIL</t>
+  </si>
+  <si>
+    <t>{ OSAL_RETURN_FAIL, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK }</t>
+  </si>
+  <si>
+    <t>IMPDRV_IRQ_GROUP_2 != p_irq_param-&gt;irq_group</t>
+  </si>
+  <si>
+    <t>IMPDRV_IRQ_GROUP_2</t>
+  </si>
+  <si>
+    <t>IMPDRV_IRQ_GROUP_NONE != p_irq_param-&gt;irq_group</t>
+  </si>
+  <si>
+    <t>IMPDRV_IRQ_GROUP_NONE</t>
+  </si>
+  <si>
+    <t>g_impdrv_cmn_ctl_chk =4 Returns checkfail</t>
+  </si>
+  <si>
+    <t>{ 0, 0, 0 , 0, 1 }</t>
+  </si>
+  <si>
+    <t>IMPDRV_EC_NG_CHECKFAIL</t>
+  </si>
+  <si>
+    <t>{ 0, 0, 0 , 0, 262144 }</t>
+  </si>
+  <si>
+    <t>check if[rt] R_OSAL_IoRead32 = OSAL_RETURN_PAR</t>
+  </si>
+  <si>
+    <t>{ OSAL_RETURN_PAR, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK }</t>
+  </si>
+  <si>
+    <t>check if[rt] R_OSAL_IoRead32 = OSAL_RETURN_DEV</t>
+  </si>
+  <si>
+    <t>{ OSAL_RETURN_DEV, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK }</t>
+  </si>
+  <si>
+    <t>check if[rt] R_OSAL_IoRead32 = OSAL_RETURN_IO</t>
+  </si>
+  <si>
+    <t>{ OSAL_RETURN_IO, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK }</t>
+  </si>
+  <si>
+    <t>check if[rt] R_OSAL_IoRead32 = OSAL_RETURN_HANDLE</t>
+  </si>
+  <si>
+    <t>{ OSAL_RETURN_HANDLE, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK }</t>
+  </si>
+  <si>
+    <t>check if[rt] R_OSAL_IoRead32 = OSAL_RETURN_STATE</t>
+  </si>
+  <si>
+    <t>{ OSAL_RETURN_STATE, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK, OSAL_RETURN_OK }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1830,10 +2041,65 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Victor Mono"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1928,7 +2194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2221,8 +2487,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2232,8 +2653,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -2532,13 +2983,226 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="25">
+    <cellStyle name="Excel Built-in Normal" xfId="17" xr:uid="{C161CCC1-4DE4-4446-AF4A-E27D724A8B9D}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="13" xr:uid="{62F1FEF8-A75A-46FB-9FBC-0A78A9136D26}"/>
+    <cellStyle name="Hyperlink 2 2 2" xfId="24" xr:uid="{AEC6F2D7-EE79-4D30-B73A-79AAB1770C64}"/>
+    <cellStyle name="Hyperlink 3" xfId="15" xr:uid="{F7C0D9CE-0FB5-4019-8827-949E39C99F8B}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="18" xr:uid="{5ECC4ECA-E593-406A-A422-5E20E5B000F3}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{75FFBC6B-4B9B-44DE-A468-1AD155BA5DEF}"/>
+    <cellStyle name="Normal 2 2" xfId="19" xr:uid="{D5C9E4FF-71C6-404C-88C7-4514833335F9}"/>
+    <cellStyle name="Normal 3" xfId="14" xr:uid="{13626E62-9013-4AC2-88FC-B87F568CFAD9}"/>
+    <cellStyle name="Normal 3 2" xfId="22" xr:uid="{41FDF850-0933-49DA-B84B-A92B576230BC}"/>
+    <cellStyle name="Normal 4" xfId="23" xr:uid="{5CE718B1-1AC8-4BA9-916D-6B41840FF232}"/>
+    <cellStyle name="標準 2 2" xfId="9" xr:uid="{60259781-8CF0-4D56-B36C-0EC932E24BA1}"/>
     <cellStyle name="標準 2 2 2" xfId="3" xr:uid="{0AE0133A-2554-41DA-8F55-F5FFE47CE435}"/>
+    <cellStyle name="標準 2 2 3" xfId="21" xr:uid="{98B9B830-5E9C-4954-AEB4-28C7E90451A1}"/>
+    <cellStyle name="標準 2 3" xfId="12" xr:uid="{F1E283D3-3F2A-4894-A992-A697581472A3}"/>
+    <cellStyle name="標準 2 4 2" xfId="10" xr:uid="{5AD3B8BA-FE7F-4E76-B6E8-6B753F1448C2}"/>
+    <cellStyle name="標準 3 2 3" xfId="7" xr:uid="{B6596A61-62B7-4503-A94E-EB74588690C4}"/>
     <cellStyle name="標準 4 3" xfId="2" xr:uid="{6AC9D8F2-C73D-40FE-860F-8BBDE694CBDD}"/>
     <cellStyle name="標準 4 3 2" xfId="4" xr:uid="{F5E6AB1A-05FE-4EDC-8048-BC1AF823CDF1}"/>
+    <cellStyle name="標準 5" xfId="5" xr:uid="{446DADE7-0E2E-4B33-85BA-61B8A49BD7F9}"/>
+    <cellStyle name="標準 5 2" xfId="20" xr:uid="{C1F0C09C-DA4D-4C6B-84D8-38470B168954}"/>
+    <cellStyle name="標準 8" xfId="8" xr:uid="{7B731810-5AB6-4703-9E35-E7FAC8338E8F}"/>
+    <cellStyle name="通貨 2" xfId="11" xr:uid="{75BED332-1386-4589-8AAE-FBB29CFD48D7}"/>
+    <cellStyle name="通貨 2 2" xfId="16" xr:uid="{4A9FE841-9FF9-4838-8A94-27762C507C63}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3031,7 +3695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B53B6F-342A-491C-8353-5DBDF0B17822}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView topLeftCell="C33" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -6998,7 +7662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8226639-EDD0-4EA2-A165-0C9F17C1F447}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15:R15"/>
     </sheetView>
   </sheetViews>
@@ -11555,8 +12219,8 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
@@ -14185,7 +14849,7 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I7:P7 U7:W7" xr:uid="{EFF251A6-7B59-4337-92A2-96310C01588C}">
       <formula1>"I/,/O,I/O"</formula1>
@@ -14211,16 +14875,4665 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4151AE-3DD6-47AB-BAF1-B146FD01F5F4}">
+  <dimension ref="A1:AK57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" style="115" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="62.08984375" style="115" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="6.6328125" style="115" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.36328125" style="115" customWidth="1"/>
+    <col min="5" max="5" width="35.6328125" style="115" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" style="115" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="115" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.7265625" style="115" customWidth="1"/>
+    <col min="9" max="12" width="23.90625" style="115" customWidth="1"/>
+    <col min="13" max="13" width="26.7265625" style="115" customWidth="1"/>
+    <col min="14" max="14" width="25.7265625" style="115" customWidth="1"/>
+    <col min="15" max="16" width="23.90625" style="115" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" style="115" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="23.90625" style="115" customWidth="1"/>
+    <col min="20" max="20" width="21.1796875" style="115" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="23.90625" style="115" customWidth="1"/>
+    <col min="23" max="23" width="21.1796875" style="115" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="23.90625" style="115" customWidth="1"/>
+    <col min="26" max="26" width="21.1796875" style="115" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="23.90625" style="115" customWidth="1"/>
+    <col min="29" max="29" width="21.1796875" style="115" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.90625" style="115" customWidth="1"/>
+    <col min="31" max="31" width="21.08984375" style="115" customWidth="1"/>
+    <col min="32" max="32" width="21.1796875" style="115" customWidth="1"/>
+    <col min="33" max="33" width="31" style="115" customWidth="1"/>
+    <col min="34" max="34" width="21.90625" style="115" customWidth="1"/>
+    <col min="35" max="35" width="22.08984375" style="115" customWidth="1"/>
+    <col min="36" max="36" width="45.54296875" style="115" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.6328125" style="115" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="115"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="15" customHeight="1">
+      <c r="A1" s="115" t="str">
+        <f ca="1">"Heading 2 "&amp;C2</f>
+        <v>Heading 2 R_IMPDRV_SetIrqGroup</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="117"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+    </row>
+    <row r="2" spans="1:37" ht="17.25" customHeight="1">
+      <c r="A2" s="115" t="str">
+        <f>"Heading 3 "&amp;H2</f>
+        <v>Heading 3 Data specification</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="109" t="str">
+        <f ca="1">MID(CELL("filename",C2),FIND("]",CELL("filename",C2))+1,30)</f>
+        <v>R_IMPDRV_SetIrqGroup</v>
+      </c>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+    </row>
+    <row r="3" spans="1:37" ht="15" customHeight="1">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="148" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15" customHeight="1">
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF4" s="142"/>
+      <c r="AG4" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1">
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="103" t="s">
+        <v>308</v>
+      </c>
+      <c r="L5" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="N5" s="135"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="T5" s="135"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="W5" s="135"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="111"/>
+      <c r="AJ5" s="111"/>
+      <c r="AK5" s="111"/>
+    </row>
+    <row r="6" spans="1:37" ht="15" customHeight="1">
+      <c r="B6" s="116"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="111"/>
+      <c r="T6" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="111"/>
+      <c r="W6" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="155"/>
+      <c r="AF6" s="144"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111"/>
+      <c r="AK6" s="111"/>
+    </row>
+    <row r="7" spans="1:37" ht="15" customHeight="1">
+      <c r="B7" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="90"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="122" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" s="122" t="s">
+        <v>310</v>
+      </c>
+      <c r="L7" s="122" t="s">
+        <v>311</v>
+      </c>
+      <c r="M7" s="122" t="s">
+        <v>312</v>
+      </c>
+      <c r="N7" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="122" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q7" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="122" t="s">
+        <v>314</v>
+      </c>
+      <c r="T7" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="122" t="s">
+        <v>315</v>
+      </c>
+      <c r="W7" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="122" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z7" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="122" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC7" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE7" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF7" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG7" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI7" s="122" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ7" s="122" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK7" s="122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15" customHeight="1">
+      <c r="B8" s="116"/>
+      <c r="C8" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="E8" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="156" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="156" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ8" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK8" s="133" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="33" customHeight="1">
+      <c r="B9" s="116"/>
+      <c r="C9" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="87"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="149" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="151" t="s">
+        <v>321</v>
+      </c>
+      <c r="J9" s="151" t="s">
+        <v>322</v>
+      </c>
+      <c r="K9" s="151" t="s">
+        <v>323</v>
+      </c>
+      <c r="L9" s="151" t="s">
+        <v>324</v>
+      </c>
+      <c r="M9" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="N9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="T9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="W9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB9" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC9" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE9" s="157" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF9" s="158" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG9" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH9" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI9" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ9" s="151" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK9" s="151" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="66" customHeight="1">
+      <c r="B10" s="116"/>
+      <c r="C10" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="87"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="149" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="151" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="W10" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="147" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD10" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE10" s="159" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF10" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG10" s="151" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH10" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI10" s="151" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ10" s="151" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK10" s="151" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="70.5" customHeight="1">
+      <c r="B11" s="116"/>
+      <c r="C11" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="149" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC11" s="136"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="160"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="161"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="136"/>
+      <c r="AJ11" s="125"/>
+      <c r="AK11" s="125"/>
+    </row>
+    <row r="12" spans="1:37" ht="60.75" customHeight="1">
+      <c r="B12" s="116"/>
+      <c r="C12" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>333</v>
+      </c>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="152"/>
+      <c r="AE12" s="152"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="152"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="152"/>
+      <c r="AJ12" s="152"/>
+      <c r="AK12" s="153"/>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1">
+      <c r="B13" s="116"/>
+      <c r="E13" s="110"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="118"/>
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1">
+      <c r="B14" s="116"/>
+      <c r="H14" s="137" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="162"/>
+      <c r="AF14" s="162"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124"/>
+    </row>
+    <row r="15" spans="1:37" ht="15" customHeight="1">
+      <c r="A15" s="115" t="str">
+        <f>"Heading 3 "&amp;H14</f>
+        <v>Heading 3 Input and Output data</v>
+      </c>
+      <c r="B15" s="116"/>
+      <c r="C15" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="140" t="str">
+        <f t="array" aca="1" ref="I15" ca="1">OFFSET(I$7,IFERROR(MATCH(0,INDEX(0/(I$7:I$7&lt;&gt;""),),0),0)-1,0)&amp;""</f>
+        <v>handle</v>
+      </c>
+      <c r="J15" s="140" t="str">
+        <f t="shared" ref="J15:AD15" ca="1" si="0">OFFSET(J$7,IFERROR(MATCH(0,INDEX(0/(J$7:J$7&lt;&gt;""),),0),0)-1,0)&amp;""</f>
+        <v>*p_irq_param</v>
+      </c>
+      <c r="K15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>irq_group</v>
+      </c>
+      <c r="L15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>group_core_num</v>
+      </c>
+      <c r="M15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>group_core_info[0]</v>
+      </c>
+      <c r="N15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_type</v>
+      </c>
+      <c r="O15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_num</v>
+      </c>
+      <c r="P15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>group_core_info[1]</v>
+      </c>
+      <c r="Q15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_type</v>
+      </c>
+      <c r="R15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_num</v>
+      </c>
+      <c r="S15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>group_core_info[2]</v>
+      </c>
+      <c r="T15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_type</v>
+      </c>
+      <c r="U15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_num</v>
+      </c>
+      <c r="V15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>group_core_info[3]</v>
+      </c>
+      <c r="W15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_type</v>
+      </c>
+      <c r="X15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_num</v>
+      </c>
+      <c r="Y15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>group_core_info[4]</v>
+      </c>
+      <c r="Z15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_type</v>
+      </c>
+      <c r="AA15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_num</v>
+      </c>
+      <c r="AB15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>group_core_info[5]</v>
+      </c>
+      <c r="AC15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_type</v>
+      </c>
+      <c r="AD15" s="140" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>core_num</v>
+      </c>
+      <c r="AE15" s="123" t="str">
+        <f t="array" aca="1" ref="AE15" ca="1">OFFSET(AE$7,IFERROR(MATCH(0,INDEX(0/(AE$7:AE$7&lt;&gt;""),),0),0)-1,0)&amp;""</f>
+        <v>g_impdrv_cmn_ctl_chk</v>
+      </c>
+      <c r="AF15" s="123" t="str">
+        <f t="array" aca="1" ref="AF15" ca="1">OFFSET(AF$7,IFERROR(MATCH(0,INDEX(0/(AF$7:AF$7&lt;&gt;""),),0),0)-1,0)&amp;""</f>
+        <v>checksum</v>
+      </c>
+      <c r="AG15" s="140" t="str">
+        <f ca="1">OFFSET(AG$7,IFERROR(MATCH(0,INDEX(0/(AG$7:AG$7&lt;&gt;""),),0),0)-1,0)&amp;""</f>
+        <v>R_OSAL_ThsyncMutexLockForTimePeriod</v>
+      </c>
+      <c r="AH15" s="140" t="str">
+        <f ca="1">OFFSET(AH$7,IFERROR(MATCH(0,INDEX(0/(AH$7:AH$7&lt;&gt;""),),0),0)-1,0)&amp;""</f>
+        <v>R_OSAL_ThsyncMutexUnlock</v>
+      </c>
+      <c r="AI15" s="140" t="str">
+        <f ca="1">OFFSET(AI$7,IFERROR(MATCH(0,INDEX(0/(AI$7:AI$7&lt;&gt;""),),0),0)-1,0)&amp;""</f>
+        <v>R_OSAL_IoRead32[6]</v>
+      </c>
+      <c r="AJ15" s="140" t="str">
+        <f ca="1">OFFSET(AJ$7,IFERROR(MATCH(0,INDEX(0/(AJ$7:AJ$7&lt;&gt;""),),0),0)-1,0)&amp;""</f>
+        <v>lRegData[6]</v>
+      </c>
+      <c r="AK15" s="140" t="str">
+        <f ca="1">OFFSET(AK$7,IFERROR(MATCH(0,INDEX(0/(AK$7:AK$7&lt;&gt;""),),0),0)-1,0)&amp;""</f>
+        <v>ercd</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1">
+      <c r="B16" s="116"/>
+      <c r="C16" s="163">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="164" t="str">
+        <f ca="1">CONCATENATE($C$2, "_", TEXT($C16, "0000"))</f>
+        <v>R_IMPDRV_SetIrqGroup_0001</v>
+      </c>
+      <c r="E16" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="128" t="str">
+        <f xml:space="preserve"> "Normal operation for SoC " &amp;F16</f>
+        <v>Normal operation for SoC V4M</v>
+      </c>
+      <c r="I16" s="122" t="s">
+        <v>334</v>
+      </c>
+      <c r="J16" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L16" s="122">
+        <v>6</v>
+      </c>
+      <c r="M16" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="122">
+        <v>0</v>
+      </c>
+      <c r="P16" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R16" s="122">
+        <v>0</v>
+      </c>
+      <c r="S16" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U16" s="122">
+        <v>0</v>
+      </c>
+      <c r="V16" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA16" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC16" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD16" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF16" s="122">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH16" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI16" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ16" s="122" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK16" s="122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" ht="15" customHeight="1">
+      <c r="B17" s="116"/>
+      <c r="C17" s="163">
+        <f t="shared" ref="C17:C47" si="1">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="164" t="str">
+        <f t="shared" ref="D17:D47" ca="1" si="2">CONCATENATE($C$2, "_", TEXT($C17, "0000"))</f>
+        <v>R_IMPDRV_SetIrqGroup_0002</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="128" t="str">
+        <f xml:space="preserve"> "Normal operation for SoC " &amp;F17</f>
+        <v>Normal operation for SoC V4M</v>
+      </c>
+      <c r="I17" s="122" t="s">
+        <v>334</v>
+      </c>
+      <c r="J17" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L17" s="122">
+        <v>6</v>
+      </c>
+      <c r="M17" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="122">
+        <v>0</v>
+      </c>
+      <c r="P17" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R17" s="122">
+        <v>0</v>
+      </c>
+      <c r="S17" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U17" s="122">
+        <v>0</v>
+      </c>
+      <c r="V17" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z17" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA17" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC17" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD17" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF17" s="122">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH17" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI17" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ17" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="AK17" s="122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" ht="15" customHeight="1">
+      <c r="B18" s="116"/>
+      <c r="C18" s="163">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0003</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="128" t="str">
+        <f xml:space="preserve"> "Normal operation for SoC " &amp;F18</f>
+        <v>Normal operation for SoC V4M</v>
+      </c>
+      <c r="I18" s="122" t="s">
+        <v>334</v>
+      </c>
+      <c r="J18" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L18" s="122">
+        <v>6</v>
+      </c>
+      <c r="M18" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" s="122">
+        <v>0</v>
+      </c>
+      <c r="P18" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R18" s="122">
+        <v>0</v>
+      </c>
+      <c r="S18" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U18" s="122">
+        <v>0</v>
+      </c>
+      <c r="V18" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X18" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z18" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA18" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC18" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD18" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF18" s="122">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH18" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI18" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ18" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK18" s="122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" ht="30" customHeight="1">
+      <c r="B19" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="163">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0004</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L19" s="122">
+        <v>6</v>
+      </c>
+      <c r="M19" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" s="122">
+        <v>0</v>
+      </c>
+      <c r="P19" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R19" s="122">
+        <v>0</v>
+      </c>
+      <c r="S19" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U19" s="122">
+        <v>0</v>
+      </c>
+      <c r="V19" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W19" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X19" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA19" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD19" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF19" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH19" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI19" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ19" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK19" s="122" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" ht="15" customHeight="1">
+      <c r="B20" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="163">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0005</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="154" t="s">
+        <v>341</v>
+      </c>
+      <c r="I20" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J20" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L20" s="122">
+        <v>6</v>
+      </c>
+      <c r="M20" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" s="122">
+        <v>0</v>
+      </c>
+      <c r="P20" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R20" s="122">
+        <v>0</v>
+      </c>
+      <c r="S20" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U20" s="122">
+        <v>0</v>
+      </c>
+      <c r="V20" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X20" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z20" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA20" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC20" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD20" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF20" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH20" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI20" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ20" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK20" s="122" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" ht="15" customHeight="1">
+      <c r="B21" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="163">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D21" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0006</v>
+      </c>
+      <c r="E21" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="154" t="s">
+        <v>342</v>
+      </c>
+      <c r="I21" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J21" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="122">
+        <v>0</v>
+      </c>
+      <c r="L21" s="122">
+        <v>6</v>
+      </c>
+      <c r="M21" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" s="122">
+        <v>0</v>
+      </c>
+      <c r="P21" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R21" s="122">
+        <v>0</v>
+      </c>
+      <c r="S21" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T21" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U21" s="122">
+        <v>0</v>
+      </c>
+      <c r="V21" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W21" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X21" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z21" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA21" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC21" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD21" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF21" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH21" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI21" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ21" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK21" s="122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" ht="15" customHeight="1">
+      <c r="B22" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="163">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D22" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0007</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="154" t="s">
+        <v>343</v>
+      </c>
+      <c r="I22" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J22" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L22" s="122">
+        <v>0</v>
+      </c>
+      <c r="M22" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" s="122">
+        <v>0</v>
+      </c>
+      <c r="P22" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R22" s="122">
+        <v>0</v>
+      </c>
+      <c r="S22" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U22" s="122">
+        <v>0</v>
+      </c>
+      <c r="V22" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W22" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X22" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z22" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA22" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC22" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD22" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF22" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH22" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI22" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ22" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK22" s="122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" ht="15" customHeight="1">
+      <c r="B23" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="163">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D23" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0008</v>
+      </c>
+      <c r="E23" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="154" t="s">
+        <v>344</v>
+      </c>
+      <c r="I23" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J23" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="122" t="s">
+        <v>345</v>
+      </c>
+      <c r="L23" s="122" t="s">
+        <v>346</v>
+      </c>
+      <c r="M23" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="122">
+        <v>0</v>
+      </c>
+      <c r="P23" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R23" s="122">
+        <v>0</v>
+      </c>
+      <c r="S23" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" s="122">
+        <v>0</v>
+      </c>
+      <c r="V23" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W23" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X23" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA23" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC23" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD23" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF23" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH23" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI23" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ23" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK23" s="122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" ht="15" customHeight="1">
+      <c r="B24" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="163">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D24" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0009</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="126" t="s">
+        <v>347</v>
+      </c>
+      <c r="I24" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J24" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L24" s="122">
+        <v>6</v>
+      </c>
+      <c r="M24" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" s="122">
+        <v>0</v>
+      </c>
+      <c r="P24" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="R24" s="122">
+        <v>0</v>
+      </c>
+      <c r="S24" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T24" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U24" s="122">
+        <v>0</v>
+      </c>
+      <c r="V24" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W24" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X24" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z24" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA24" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC24" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD24" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF24" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH24" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI24" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ24" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK24" s="122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" ht="15" customHeight="1">
+      <c r="B25" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="163">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D25" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0010</v>
+      </c>
+      <c r="E25" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="126" t="s">
+        <v>348</v>
+      </c>
+      <c r="I25" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J25" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L25" s="122">
+        <v>6</v>
+      </c>
+      <c r="M25" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" s="122">
+        <v>0</v>
+      </c>
+      <c r="P25" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R25" s="122">
+        <v>0</v>
+      </c>
+      <c r="S25" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U25" s="122">
+        <v>0</v>
+      </c>
+      <c r="V25" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W25" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X25" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z25" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA25" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC25" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD25" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF25" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH25" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI25" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ25" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK25" s="122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37">
+      <c r="C26" s="163">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0011</v>
+      </c>
+      <c r="E26" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="154" t="s">
+        <v>349</v>
+      </c>
+      <c r="I26" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L26" s="122">
+        <v>6</v>
+      </c>
+      <c r="M26" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O26" s="122">
+        <v>0</v>
+      </c>
+      <c r="P26" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R26" s="122">
+        <v>0</v>
+      </c>
+      <c r="S26" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U26" s="122">
+        <v>0</v>
+      </c>
+      <c r="V26" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W26" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X26" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z26" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA26" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC26" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD26" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF26" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH26" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI26" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ26" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK26" s="122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" ht="30" customHeight="1">
+      <c r="B27" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="163">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D27" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0012</v>
+      </c>
+      <c r="E27" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="154" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J27" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L27" s="122">
+        <v>6</v>
+      </c>
+      <c r="M27" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O27" s="122">
+        <v>0</v>
+      </c>
+      <c r="P27" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R27" s="122">
+        <v>0</v>
+      </c>
+      <c r="S27" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U27" s="122">
+        <v>0</v>
+      </c>
+      <c r="V27" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W27" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X27" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z27" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA27" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC27" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD27" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF27" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH27" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI27" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ27" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK27" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" ht="30" customHeight="1">
+      <c r="B28" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="163">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D28" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0013</v>
+      </c>
+      <c r="E28" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="154" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J28" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L28" s="122">
+        <v>6</v>
+      </c>
+      <c r="M28" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O28" s="122">
+        <v>0</v>
+      </c>
+      <c r="P28" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R28" s="122">
+        <v>0</v>
+      </c>
+      <c r="S28" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T28" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U28" s="122">
+        <v>0</v>
+      </c>
+      <c r="V28" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W28" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X28" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z28" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA28" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC28" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD28" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF28" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH28" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI28" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ28" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK28" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" ht="30" customHeight="1">
+      <c r="B29" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="163">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D29" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0014</v>
+      </c>
+      <c r="E29" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="154" t="s">
+        <v>350</v>
+      </c>
+      <c r="I29" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L29" s="122">
+        <v>6</v>
+      </c>
+      <c r="M29" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O29" s="122">
+        <v>0</v>
+      </c>
+      <c r="P29" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R29" s="122">
+        <v>0</v>
+      </c>
+      <c r="S29" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T29" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U29" s="122">
+        <v>0</v>
+      </c>
+      <c r="V29" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W29" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X29" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z29" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA29" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC29" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD29" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF29" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH29" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI29" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="AJ29" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK29" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" ht="15" customHeight="1">
+      <c r="B30" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="163">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D30" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0015</v>
+      </c>
+      <c r="E30" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="154" t="s">
+        <v>352</v>
+      </c>
+      <c r="I30" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J30" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="122" t="s">
+        <v>353</v>
+      </c>
+      <c r="L30" s="121" t="s">
+        <v>346</v>
+      </c>
+      <c r="M30" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O30" s="122">
+        <v>0</v>
+      </c>
+      <c r="P30" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R30" s="122">
+        <v>0</v>
+      </c>
+      <c r="S30" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T30" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U30" s="122">
+        <v>0</v>
+      </c>
+      <c r="V30" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X30" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z30" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA30" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC30" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD30" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF30" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH30" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI30" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ30" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK30" s="122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" ht="15" customHeight="1">
+      <c r="B31" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="163">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D31" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0016</v>
+      </c>
+      <c r="E31" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="154" t="s">
+        <v>354</v>
+      </c>
+      <c r="I31" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" s="122" t="s">
+        <v>355</v>
+      </c>
+      <c r="L31" s="121" t="s">
+        <v>346</v>
+      </c>
+      <c r="M31" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O31" s="122">
+        <v>0</v>
+      </c>
+      <c r="P31" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R31" s="122">
+        <v>0</v>
+      </c>
+      <c r="S31" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U31" s="122">
+        <v>0</v>
+      </c>
+      <c r="V31" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W31" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X31" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z31" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA31" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC31" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD31" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF31" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH31" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI31" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ31" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK31" s="122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" ht="15" customHeight="1">
+      <c r="B32" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="163">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D32" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0017</v>
+      </c>
+      <c r="E32" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="154" t="s">
+        <v>342</v>
+      </c>
+      <c r="I32" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L32" s="122">
+        <v>6</v>
+      </c>
+      <c r="M32" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" s="122">
+        <v>0</v>
+      </c>
+      <c r="P32" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="R32" s="122">
+        <v>0</v>
+      </c>
+      <c r="S32" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="U32" s="122">
+        <v>0</v>
+      </c>
+      <c r="V32" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W32" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="X32" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z32" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA32" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC32" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD32" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF32" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG32" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH32" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI32" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ32" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK32" s="122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="2:37" ht="15" customHeight="1">
+      <c r="B33" s="116"/>
+      <c r="C33" s="163">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D33" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0018</v>
+      </c>
+      <c r="E33" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="128" t="s">
+        <v>356</v>
+      </c>
+      <c r="I33" s="122" t="s">
+        <v>334</v>
+      </c>
+      <c r="J33" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L33" s="122">
+        <v>6</v>
+      </c>
+      <c r="M33" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N33" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O33" s="122">
+        <v>0</v>
+      </c>
+      <c r="P33" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R33" s="122">
+        <v>0</v>
+      </c>
+      <c r="S33" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T33" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U33" s="122">
+        <v>0</v>
+      </c>
+      <c r="V33" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W33" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X33" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z33" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA33" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC33" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD33" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF33" s="122">
+        <v>4</v>
+      </c>
+      <c r="AG33" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH33" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI33" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ33" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="AK33" s="122" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="2:37" ht="15" customHeight="1">
+      <c r="B34" s="116"/>
+      <c r="C34" s="163">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D34" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0019</v>
+      </c>
+      <c r="E34" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="128" t="s">
+        <v>356</v>
+      </c>
+      <c r="I34" s="122" t="s">
+        <v>334</v>
+      </c>
+      <c r="J34" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L34" s="122">
+        <v>6</v>
+      </c>
+      <c r="M34" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O34" s="122">
+        <v>0</v>
+      </c>
+      <c r="P34" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R34" s="122">
+        <v>0</v>
+      </c>
+      <c r="S34" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T34" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U34" s="122">
+        <v>0</v>
+      </c>
+      <c r="V34" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W34" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X34" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z34" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA34" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC34" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD34" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF34" s="122">
+        <v>4</v>
+      </c>
+      <c r="AG34" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH34" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI34" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ34" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK34" s="122" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="2:37" ht="15" customHeight="1">
+      <c r="B35" s="116"/>
+      <c r="C35" s="163">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D35" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0020</v>
+      </c>
+      <c r="E35" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="128" t="s">
+        <v>356</v>
+      </c>
+      <c r="I35" s="122" t="s">
+        <v>334</v>
+      </c>
+      <c r="J35" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L35" s="122">
+        <v>6</v>
+      </c>
+      <c r="M35" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O35" s="122">
+        <v>0</v>
+      </c>
+      <c r="P35" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R35" s="122">
+        <v>0</v>
+      </c>
+      <c r="S35" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T35" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U35" s="122">
+        <v>0</v>
+      </c>
+      <c r="V35" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W35" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X35" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z35" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA35" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC35" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD35" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF35" s="122">
+        <v>4</v>
+      </c>
+      <c r="AG35" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH35" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI35" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ35" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK35" s="122" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="2:37" ht="20.25" customHeight="1">
+      <c r="B36" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="163">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D36" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0021</v>
+      </c>
+      <c r="E36" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="154" t="s">
+        <v>184</v>
+      </c>
+      <c r="I36" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L36" s="122">
+        <v>6</v>
+      </c>
+      <c r="M36" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" s="122">
+        <v>0</v>
+      </c>
+      <c r="P36" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R36" s="122">
+        <v>0</v>
+      </c>
+      <c r="S36" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T36" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U36" s="122">
+        <v>0</v>
+      </c>
+      <c r="V36" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W36" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X36" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z36" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA36" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC36" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD36" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF36" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH36" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI36" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ36" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK36" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:37" ht="15" customHeight="1">
+      <c r="B37" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="163">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D37" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0022</v>
+      </c>
+      <c r="E37" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="154" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" s="122">
+        <v>6</v>
+      </c>
+      <c r="M37" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O37" s="122">
+        <v>0</v>
+      </c>
+      <c r="P37" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R37" s="122">
+        <v>0</v>
+      </c>
+      <c r="S37" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T37" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U37" s="122">
+        <v>0</v>
+      </c>
+      <c r="V37" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W37" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X37" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z37" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA37" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC37" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD37" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF37" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG37" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH37" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI37" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ37" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK37" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:37" ht="15" customHeight="1">
+      <c r="B38" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="163">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D38" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0023</v>
+      </c>
+      <c r="E38" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="154" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L38" s="122">
+        <v>6</v>
+      </c>
+      <c r="M38" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O38" s="122">
+        <v>0</v>
+      </c>
+      <c r="P38" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R38" s="122">
+        <v>0</v>
+      </c>
+      <c r="S38" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T38" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U38" s="122">
+        <v>0</v>
+      </c>
+      <c r="V38" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W38" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X38" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z38" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA38" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC38" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD38" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF38" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG38" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH38" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI38" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ38" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK38" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:37" ht="15" customHeight="1">
+      <c r="B39" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="163">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D39" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0024</v>
+      </c>
+      <c r="E39" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="154" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L39" s="122">
+        <v>6</v>
+      </c>
+      <c r="M39" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N39" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O39" s="122">
+        <v>0</v>
+      </c>
+      <c r="P39" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R39" s="122">
+        <v>0</v>
+      </c>
+      <c r="S39" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T39" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U39" s="122">
+        <v>0</v>
+      </c>
+      <c r="V39" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W39" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X39" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z39" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA39" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC39" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD39" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF39" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH39" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI39" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ39" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK39" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:37" ht="15" customHeight="1">
+      <c r="B40" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="163">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D40" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0025</v>
+      </c>
+      <c r="E40" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="154" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L40" s="122">
+        <v>6</v>
+      </c>
+      <c r="M40" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N40" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O40" s="122">
+        <v>0</v>
+      </c>
+      <c r="P40" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R40" s="122">
+        <v>0</v>
+      </c>
+      <c r="S40" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T40" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U40" s="122">
+        <v>0</v>
+      </c>
+      <c r="V40" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W40" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X40" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z40" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA40" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC40" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD40" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF40" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG40" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH40" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI40" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ40" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK40" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:37" ht="15" customHeight="1">
+      <c r="B41" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="163">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D41" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0026</v>
+      </c>
+      <c r="E41" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="154" t="s">
+        <v>193</v>
+      </c>
+      <c r="I41" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" s="122">
+        <v>6</v>
+      </c>
+      <c r="M41" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O41" s="122">
+        <v>0</v>
+      </c>
+      <c r="P41" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R41" s="122">
+        <v>0</v>
+      </c>
+      <c r="S41" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T41" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U41" s="122">
+        <v>0</v>
+      </c>
+      <c r="V41" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W41" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X41" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z41" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA41" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC41" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD41" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF41" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG41" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH41" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI41" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ41" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK41" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:37" ht="15" customHeight="1">
+      <c r="B42" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="163">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D42" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0027</v>
+      </c>
+      <c r="E42" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="I42" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" s="122">
+        <v>6</v>
+      </c>
+      <c r="M42" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O42" s="122">
+        <v>0</v>
+      </c>
+      <c r="P42" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R42" s="122">
+        <v>0</v>
+      </c>
+      <c r="S42" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T42" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U42" s="122">
+        <v>0</v>
+      </c>
+      <c r="V42" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W42" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X42" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z42" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA42" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC42" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD42" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF42" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG42" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH42" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI42" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ42" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK42" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:37" ht="15" customHeight="1">
+      <c r="B43" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="163">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D43" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0028</v>
+      </c>
+      <c r="E43" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="154" t="s">
+        <v>360</v>
+      </c>
+      <c r="I43" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J43" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" s="122">
+        <v>6</v>
+      </c>
+      <c r="M43" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O43" s="122">
+        <v>0</v>
+      </c>
+      <c r="P43" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R43" s="122">
+        <v>0</v>
+      </c>
+      <c r="S43" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U43" s="122">
+        <v>0</v>
+      </c>
+      <c r="V43" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W43" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X43" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z43" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA43" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC43" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD43" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF43" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG43" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH43" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI43" s="126" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ43" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK43" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:37" ht="15" customHeight="1">
+      <c r="B44" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="163">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D44" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0029</v>
+      </c>
+      <c r="E44" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="154" t="s">
+        <v>362</v>
+      </c>
+      <c r="I44" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J44" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L44" s="122">
+        <v>6</v>
+      </c>
+      <c r="M44" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N44" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O44" s="122">
+        <v>0</v>
+      </c>
+      <c r="P44" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R44" s="122">
+        <v>0</v>
+      </c>
+      <c r="S44" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U44" s="122">
+        <v>0</v>
+      </c>
+      <c r="V44" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W44" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X44" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z44" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA44" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC44" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD44" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF44" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG44" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH44" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI44" s="126" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ44" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK44" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:37" ht="15" customHeight="1">
+      <c r="B45" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="163">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D45" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0030</v>
+      </c>
+      <c r="E45" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="154" t="s">
+        <v>364</v>
+      </c>
+      <c r="I45" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J45" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" s="122">
+        <v>6</v>
+      </c>
+      <c r="M45" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O45" s="122">
+        <v>0</v>
+      </c>
+      <c r="P45" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R45" s="122">
+        <v>0</v>
+      </c>
+      <c r="S45" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T45" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U45" s="122">
+        <v>0</v>
+      </c>
+      <c r="V45" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W45" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X45" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z45" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA45" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC45" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD45" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF45" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG45" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH45" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI45" s="126" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ45" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK45" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:37" ht="15" customHeight="1">
+      <c r="B46" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="163">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D46" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0031</v>
+      </c>
+      <c r="E46" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="154" t="s">
+        <v>366</v>
+      </c>
+      <c r="I46" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J46" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L46" s="122">
+        <v>6</v>
+      </c>
+      <c r="M46" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N46" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O46" s="122">
+        <v>0</v>
+      </c>
+      <c r="P46" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R46" s="122">
+        <v>0</v>
+      </c>
+      <c r="S46" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T46" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U46" s="122">
+        <v>0</v>
+      </c>
+      <c r="V46" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W46" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X46" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z46" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA46" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC46" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD46" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF46" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG46" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH46" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI46" s="126" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ46" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK46" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:37" ht="15" customHeight="1">
+      <c r="B47" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="163">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D47" s="164" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>R_IMPDRV_SetIrqGroup_0032</v>
+      </c>
+      <c r="E47" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="154" t="s">
+        <v>368</v>
+      </c>
+      <c r="I47" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="J47" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" s="122">
+        <v>6</v>
+      </c>
+      <c r="M47" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="N47" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="O47" s="122">
+        <v>0</v>
+      </c>
+      <c r="P47" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="R47" s="122">
+        <v>0</v>
+      </c>
+      <c r="S47" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="T47" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="U47" s="122">
+        <v>0</v>
+      </c>
+      <c r="V47" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="W47" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="X47" s="122">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z47" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA47" s="122">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC47" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD47" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF47" s="122">
+        <v>5</v>
+      </c>
+      <c r="AG47" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH47" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI47" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="AJ47" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK47" s="122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="2:37" ht="15" customHeight="1">
+      <c r="B48" s="116"/>
+    </row>
+    <row r="56" spans="6:33">
+      <c r="AC56" s="112"/>
+      <c r="AG56" s="112"/>
+    </row>
+    <row r="57" spans="6:33">
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:AD8 AG8:AK8" xr:uid="{0E27EFB9-20C3-41C8-95CF-0910C71FDE64}">
+      <formula1>"I/,/O,I/O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I3:AD3 AG3:AK3" xr:uid="{5ABEDFAF-6D36-4184-9AE6-B989B3034AF6}">
+      <formula1>"Parameter(In),Parameter(Out),Related global parameter,Return,Local function"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AE8:AF8" xr:uid="{15B51436-E106-4FD9-BAC9-FF64C47ABBBF}">
+      <formula1>"I/,/O,I/O"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AE3" xr:uid="{D6382009-99E3-4818-A380-42A67CD2E258}">
+      <formula1>"Parameter(In),Parameter(Out),Related global parameter,Return,Local function"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C1" location="Summary!A1" display="&lt;=Summary" xr:uid="{35C442A0-9919-41EC-BFF3-80A890C03558}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AEC82D-446A-4046-BF3C-8D45EEC59A8D}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="C16" sqref="A16:XFD32"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="62.08984375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="6.6328125" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
@@ -16127,11 +21440,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03D3585-9FCD-4938-B4DD-F07BF8EF78E3}">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView topLeftCell="C45" workbookViewId="0">
+    <sheetView topLeftCell="C12" workbookViewId="0">
       <selection activeCell="C73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>

--- a/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
+++ b/spec/IMPD_X30_Unit_Test_Specification (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long.trinh-tien\Documents\Git\training_ut_it_Long\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5CE4B3-FFED-4C92-A3D8-6FE670639DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99654341-5C62-47DA-A907-AB2CA18FFCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{98A04C18-7F5B-4AE7-A401-12E90007D75B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{98A04C18-7F5B-4AE7-A401-12E90007D75B}"/>
   </bookViews>
   <sheets>
     <sheet name="R_IMPDRV_GetPMPolicy" sheetId="2" r:id="rId1"/>
@@ -14878,8 +14878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4151AE-3DD6-47AB-BAF1-B146FD01F5F4}">
   <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
